--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3155725.728958135</v>
+        <v>3153473.649246928</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877392</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>120.564383124314</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974247</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>85.47654389282634</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060049</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>92.47445699814307</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>70.93055469222921</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>39.32117841962602</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634788</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505287</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242251</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187848</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506633</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855437</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>942.9472709150257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>942.9472709150257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>560.4166776763443</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>391.4804947484374</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>223.7776581231564</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>77.56047134101416</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1840.954604762406</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.270116556519</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W4" t="n">
-        <v>1296.852946519558</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.863395621541</v>
+        <v>742.065142506584</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.0708164780106</v>
+        <v>742.065142506584</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4574,19 +4574,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1574.131181731201</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1574.131181731201</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1574.131181731201</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1574.131181731201</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1346.141630833184</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1125.349051689654</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2342.88890195346</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1973.926385013048</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1615.660686406298</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1229.872433808054</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>818.886529018446</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>403.8140788634425</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>106.2304784722097</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993394</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2729.488742017582</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142531</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142531</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380876</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683274</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168594</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5817,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1550.665004989558</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.574735228845</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2526.197884723913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.391849971171</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440269</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312481</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
@@ -26344,16 +26344,16 @@
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.906913468654238e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.462967702536844e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181818</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
+        <v>12996.86414683052</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12996.86414683054</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12996.86414683054</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683052</v>
+      </c>
+      <c r="I4" t="n">
         <v>12996.86414683048</v>
       </c>
-      <c r="F4" t="n">
-        <v>12996.86414683048</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="H4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.8641468305</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683048</v>
-      </c>
       <c r="K4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810451.0365759196</v>
+        <v>-810451.0365759194</v>
       </c>
       <c r="C6" t="n">
         <v>518293.7091516728</v>
@@ -26528,40 +26528,40 @@
         <v>518293.7091516729</v>
       </c>
       <c r="E6" t="n">
-        <v>266721.4189506629</v>
+        <v>266686.6810252275</v>
       </c>
       <c r="F6" t="n">
-        <v>592133.8807580178</v>
+        <v>592099.1428325826</v>
       </c>
       <c r="G6" t="n">
-        <v>592133.8807580179</v>
+        <v>592099.1428325819</v>
       </c>
       <c r="H6" t="n">
-        <v>592133.8807580181</v>
+        <v>592099.1428325821</v>
       </c>
       <c r="I6" t="n">
-        <v>592133.8807580179</v>
+        <v>592099.1428325819</v>
       </c>
       <c r="J6" t="n">
-        <v>374602.6783607405</v>
+        <v>374567.9404353048</v>
       </c>
       <c r="K6" t="n">
-        <v>592133.8807580178</v>
+        <v>592099.1428325821</v>
       </c>
       <c r="L6" t="n">
-        <v>592133.880758018</v>
+        <v>592099.1428325824</v>
       </c>
       <c r="M6" t="n">
-        <v>507078.852822506</v>
+        <v>507044.1148970707</v>
       </c>
       <c r="N6" t="n">
-        <v>592133.880758018</v>
+        <v>592099.1428325824</v>
       </c>
       <c r="O6" t="n">
-        <v>592133.8807580179</v>
+        <v>592099.1428325826</v>
       </c>
       <c r="P6" t="n">
-        <v>592133.8807580179</v>
+        <v>592099.1428325824</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747067</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>286.3116626173975</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.41454905009564</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>200.7352943127866</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616613</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>111.4435131414771</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>148.61839458394</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.255751353299935</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29995,13 +29995,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31762,28 +31762,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927461</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130972</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31914,7 +31914,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31929,13 +31929,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955534</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770858</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860373</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483017</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707566</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156792</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937526</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.934053971707</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683797</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
